--- a/datamining/final_data/sorted1982_nltk.xlsx
+++ b/datamining/final_data/sorted1982_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GI2"/>
+  <dimension ref="A1:FG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,147 +442,147 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>programming</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>gifted-children</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>creativity</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>program</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>editorial</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>programming</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>education</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>gifted-children</t>
+          <t>students</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>single</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>population</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>editorial</t>
+          <t>characteristics</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>alone</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>world</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>constitutes</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>characteristics</t>
+          <t>must</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>multiple</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>constitutes</t>
+          <t>identifying</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>multiple</t>
+          <t>social</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>self-concept</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>single</t>
+          <t>learners</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>implications</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>self-concept</t>
+          <t>assessment</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>intellectually</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>identifying</t>
+          <t>support</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>is</t>
+          <t>average</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>learners</t>
+          <t>curriculum</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>there</t>
+          <t>review</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
@@ -592,795 +592,655 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>implications</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>patch-on</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>intellectually</t>
+          <t>positives</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>positives</t>
+          <t>developing</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>have</t>
+          <t>means</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>should</t>
+          <t>santa-claus</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>waiting</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>support</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>educational</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>by</t>
+          <t>3-5-percent</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>one</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>same</t>
+          <t>difficult</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>indivisible</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>developing</t>
+          <t>measure</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>must</t>
+          <t>youth</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>waiting</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>patch-on</t>
+          <t>underachieving</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>santa-claus</t>
+          <t>everyone</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>children</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>need</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>underachievement</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>3-5-percent</t>
+          <t>essay</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>youth</t>
+          <t>demythologizing</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>underachieving</t>
+          <t>acceleration</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>means</t>
+          <t>scores</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>having</t>
+          <t>rate</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
+          <t>academically</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
           <t>affective</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>educational-implications</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>rate</t>
-        </is>
-      </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>acceleration</t>
+          <t>group</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>academically</t>
+          <t>homogeneous</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>underachievement</t>
+          <t>evolution</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>adolescents</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>school</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>districts</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>curriculum</t>
+          <t>college</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>homogeneous</t>
+          <t>non-entrenchment</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>losers</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>indivisible</t>
+          <t>winners</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>intellectual</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>adolescents</t>
+          <t>formal</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>operations</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>evolution</t>
+          <t>acquisition</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>non-entrenchment</t>
+          <t>comparisons</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>essay</t>
+          <t>role</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>demythologizing</t>
+          <t>use</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>cosmetic</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>intellectual</t>
+          <t>selection</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>criteria</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>districts</t>
+          <t>expressive</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>encounters</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>thumb</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>comparisons</t>
+          <t>stick</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>selection</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>criteria</t>
+          <t>unleashing</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>difficult</t>
+          <t>tests</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>measure</t>
+          <t>sore</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>cosmetic</t>
+          <t>misapplication</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>live</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>too</t>
+          <t>lies</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>operations</t>
+          <t>like</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>acquisition</t>
+          <t>profiles</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>girls</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>boys</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>alone</t>
+          <t>comparative-study</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>formal</t>
+          <t>task</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>encounters</t>
+          <t>strategies</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>profiles</t>
+          <t>problem-solving</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>special-class</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>expressive</t>
+          <t>placement</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>unleashing</t>
+          <t>outcome</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>girls</t>
+          <t>discrimination</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>boys</t>
+          <t>plea</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>winners</t>
+          <t>encouragement</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>everyone</t>
+          <t>responsibility</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>losers</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>extra-school</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>scores</t>
+          <t>meet</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>needs</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>saturday</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>comparative-study</t>
+          <t>super</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>outcome</t>
+          <t>production</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>community</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>placement</t>
+          <t>revolving</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>special-class</t>
+          <t>programming-model</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
+          <t>center</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>holistic</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>correlates</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>door</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>enrichment</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
           <t>model</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>center</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>community</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>enrichment</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>holistic</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>programming-model</t>
-        </is>
-      </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>like</t>
+          <t>survey</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>revolving</t>
+          <t>younger</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>thumb</t>
+          <t>policies</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>stick</t>
+          <t>early</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>sore</t>
+          <t>admission</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>ostrich</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>live</t>
+          <t>cure</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>door</t>
+          <t>sick</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>needs</t>
+          <t>syndrome</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>lies</t>
+          <t>real</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>correlates</t>
+          <t>meaning</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>discrimination</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>problem-solving</t>
+          <t>qualitative</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>strategies</t>
+          <t>differences</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>tests</t>
+          <t>stalking</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>extra-school</t>
+          <t>makes</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>meet</t>
+          <t>illusive</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>developmental</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>saturday</t>
+          <t>guidance</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>super</t>
+          <t>ra</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>misapplication</t>
+          <t>perrone</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>pa</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>responsibility</t>
+          <t>male</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>plea</t>
+          <t>book</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>encouragement</t>
+          <t>upon</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>sick</t>
+          <t>microcomputer</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>literacy</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>ostrich</t>
+          <t>instruction</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>cure</t>
+          <t>high</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>syndrome</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>computer</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>pa</t>
+          <t>assisted</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>admission</t>
+          <t>ability</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>younger</t>
+          <t>comparison</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>interpersonal</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
-        <is>
-          <t>developmental</t>
-        </is>
-      </c>
-      <c r="FH1" s="1" t="inlineStr">
-        <is>
-          <t>policies</t>
-        </is>
-      </c>
-      <c r="FI1" s="1" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="FJ1" s="1" t="inlineStr">
-        <is>
-          <t>guidance</t>
-        </is>
-      </c>
-      <c r="FK1" s="1" t="inlineStr">
-        <is>
-          <t>perrone</t>
-        </is>
-      </c>
-      <c r="FL1" s="1" t="inlineStr">
-        <is>
-          <t>ra</t>
-        </is>
-      </c>
-      <c r="FM1" s="1" t="inlineStr">
-        <is>
-          <t>survey</t>
-        </is>
-      </c>
-      <c r="FN1" s="1" t="inlineStr">
-        <is>
-          <t>than</t>
-        </is>
-      </c>
-      <c r="FO1" s="1" t="inlineStr">
-        <is>
-          <t>instruction</t>
-        </is>
-      </c>
-      <c r="FP1" s="1" t="inlineStr">
-        <is>
-          <t>upon</t>
-        </is>
-      </c>
-      <c r="FQ1" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="FR1" s="1" t="inlineStr">
-        <is>
-          <t>literacy</t>
-        </is>
-      </c>
-      <c r="FS1" s="1" t="inlineStr">
-        <is>
-          <t>computer</t>
-        </is>
-      </c>
-      <c r="FT1" s="1" t="inlineStr">
-        <is>
-          <t>microcomputer</t>
-        </is>
-      </c>
-      <c r="FU1" s="1" t="inlineStr">
-        <is>
-          <t>assisted</t>
-        </is>
-      </c>
-      <c r="FV1" s="1" t="inlineStr">
-        <is>
-          <t>effect</t>
-        </is>
-      </c>
-      <c r="FW1" s="1" t="inlineStr">
-        <is>
-          <t>ability</t>
-        </is>
-      </c>
-      <c r="FX1" s="1" t="inlineStr">
-        <is>
-          <t>problem</t>
-        </is>
-      </c>
-      <c r="FY1" s="1" t="inlineStr">
-        <is>
-          <t>what</t>
-        </is>
-      </c>
-      <c r="FZ1" s="1" t="inlineStr">
-        <is>
-          <t>stalking</t>
-        </is>
-      </c>
-      <c r="GA1" s="1" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="GB1" s="1" t="inlineStr">
-        <is>
-          <t>qualitative</t>
-        </is>
-      </c>
-      <c r="GC1" s="1" t="inlineStr">
-        <is>
-          <t>meaning</t>
-        </is>
-      </c>
-      <c r="GD1" s="1" t="inlineStr">
-        <is>
-          <t>makes</t>
-        </is>
-      </c>
-      <c r="GE1" s="1" t="inlineStr">
-        <is>
-          <t>illusive</t>
-        </is>
-      </c>
-      <c r="GF1" s="1" t="inlineStr">
-        <is>
-          <t>differences</t>
-        </is>
-      </c>
-      <c r="GG1" s="1" t="inlineStr">
-        <is>
-          <t>comparison</t>
-        </is>
-      </c>
-      <c r="GH1" s="1" t="inlineStr">
-        <is>
-          <t>interpersonal</t>
-        </is>
-      </c>
-      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>sensitivity</t>
         </is>
@@ -1394,94 +1254,94 @@
         <v>1982</v>
       </c>
       <c r="C2" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1.51</v>
       </c>
       <c r="F2" t="n">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="G2" t="n">
-        <v>1.81</v>
+        <v>1.34</v>
       </c>
       <c r="H2" t="n">
-        <v>1.79</v>
+        <v>1.31</v>
       </c>
       <c r="I2" t="n">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="J2" t="n">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="K2" t="n">
-        <v>1.44</v>
+        <v>1.09</v>
       </c>
       <c r="L2" t="n">
-        <v>1.39</v>
+        <v>1.06</v>
       </c>
       <c r="M2" t="n">
-        <v>1.26</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>1.23</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>1.14</v>
+        <v>0.98</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.09</v>
+        <v>0.97</v>
       </c>
       <c r="R2" t="n">
-        <v>1.04</v>
+        <v>0.97</v>
       </c>
       <c r="S2" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="T2" t="n">
-        <v>0.98</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9299999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9000000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="X2" t="n">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.8500000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.8500000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8400000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.8400000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AG2" t="n">
         <v>0.75</v>
@@ -1496,112 +1356,112 @@
         <v>0.74</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.7100000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="AP2" t="n">
         <v>0.7</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.67</v>
+        <v>0.61</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.66</v>
+        <v>0.58</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.66</v>
+        <v>0.58</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.5900000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="BJ2" t="n">
         <v>0.57</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="BU2" t="n">
         <v>0.52</v>
@@ -1613,13 +1473,13 @@
         <v>0.52</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="CA2" t="n">
         <v>0.5</v>
@@ -1628,103 +1488,103 @@
         <v>0.5</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="CR2" t="n">
         <v>0.46</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="DJ2" t="n">
         <v>0.41</v>
@@ -1736,16 +1596,16 @@
         <v>0.41</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="DQ2" t="n">
         <v>0.4</v>
@@ -1763,100 +1623,100 @@
         <v>0.4</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="FB2" t="n">
         <v>0.33</v>
@@ -1868,97 +1728,13 @@
         <v>0.33</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
